--- a/xlsx/nor_oda_genderequality_tenyear.xlsx
+++ b/xlsx/nor_oda_genderequality_tenyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata1 og Figurdata2 viser data for Øremerket bistand til å fremme kvinners rettigheter og likestilling, 2014-2023. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand.</t>
+          <t>Arkfane Figurdata1 og Figurdata2 viser data for Øremerket bistand til å fremme kvinners rettigheter og likestilling, 2015-2024. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand.</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -413,12 +413,12 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.25635227813</v>
+        <v>1.25563285703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -426,12 +426,12 @@
         </is>
       </c>
       <c r="C3">
-        <v>6.03533148274</v>
+        <v>5.44615688315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -439,12 +439,12 @@
         </is>
       </c>
       <c r="C4">
-        <v>1.25563285703</v>
+        <v>0.93814097844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -452,12 +452,12 @@
         </is>
       </c>
       <c r="C5">
-        <v>5.44615688315</v>
+        <v>5.80656868725</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -465,12 +465,12 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.93814097844</v>
+        <v>1.18501400104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -478,12 +478,12 @@
         </is>
       </c>
       <c r="C7">
-        <v>5.80656868725</v>
+        <v>5.45190632017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -491,12 +491,12 @@
         </is>
       </c>
       <c r="C8">
-        <v>1.18501400104</v>
+        <v>1.2728887411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -504,12 +504,12 @@
         </is>
       </c>
       <c r="C9">
-        <v>5.45190632017</v>
+        <v>6.97587599971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -517,12 +517,12 @@
         </is>
       </c>
       <c r="C10">
-        <v>1.2728887411</v>
+        <v>1.57508901791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -530,12 +530,12 @@
         </is>
       </c>
       <c r="C11">
-        <v>6.97587599971</v>
+        <v>7.96675255498</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -543,12 +543,12 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.57508901791</v>
+        <v>1.60781868034</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -556,12 +556,12 @@
         </is>
       </c>
       <c r="C13">
-        <v>7.95475255498</v>
+        <v>9.75809784314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -569,12 +569,12 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.60781868034</v>
+        <v>1.67351662215</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -582,12 +582,12 @@
         </is>
       </c>
       <c r="C15">
-        <v>9.746097843139999</v>
+        <v>9.79726485005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -595,12 +595,12 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.67351662215</v>
+        <v>1.82443274027</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -608,12 +608,12 @@
         </is>
       </c>
       <c r="C17">
-        <v>9.756664850050001</v>
+        <v>11.89142127468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -621,12 +621,12 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.82443274027</v>
+        <v>2.69612417206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -634,12 +634,12 @@
         </is>
       </c>
       <c r="C19">
-        <v>11.84063583468</v>
+        <v>16.08618670648</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -647,12 +647,12 @@
         </is>
       </c>
       <c r="C20">
-        <v>2.69612417206</v>
+        <v>2.096999464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>15.98892447348</v>
+        <v>18.01901953093</v>
       </c>
     </row>
   </sheetData>
@@ -690,82 +690,82 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2">
-        <v>0.3210680406549887</v>
+        <v>0.2719196688427987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3">
-        <v>0.2719196688427987</v>
+        <v>0.25077311506787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>0.25077311506787</v>
+        <v>0.2807776142520594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>0.2807776142520594</v>
+        <v>0.343697488058115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6">
-        <v>0.343697488058115</v>
+        <v>0.3598848545374312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7">
-        <v>0.3594322565539644</v>
+        <v>0.4231923135658417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8">
-        <v>0.4227455121352401</v>
+        <v>0.4137752847212944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9">
-        <v>0.4123107570776984</v>
+        <v>0.3694083993165082</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10">
-        <v>0.3680405976412691</v>
+        <v>0.414515044751731</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11">
-        <v>0.4123685219343117</v>
+        <v>0.4799279643266867</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_genderequality_tenyear.xlsx
+++ b/xlsx/nor_oda_genderequality_tenyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata1 og Figurdata2 viser data for Øremerket bistand til å fremme kvinners rettigheter og likestilling, 2015-2024. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand.</t>
+          <t>Arkfane Figurdata1 og Figurdata2 viser data for øremerket bistand til å fremme kvinners rettigheter og likestilling, 2015-2024. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_genderequality_tenyear.xlsx
+++ b/xlsx/nor_oda_genderequality_tenyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata1 og Figurdata2 viser data for øremerket bistand til å fremme kvinners rettigheter og likestilling, 2015-2024. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand.</t>
+          <t>Arkfane Figurdata1 og Figurdata2 inneholder data om norsk øremerket bistand til å fremme kvinners rettigheter og likestilling. 2015-2024. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand.</t>
         </is>
       </c>
     </row>
